--- a/data/pca/factorExposure/factorExposure_2015-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009886137486808109</v>
+        <v>0.008638349797730737</v>
       </c>
       <c r="C2">
-        <v>-0.04022385121613795</v>
+        <v>-0.05289007959948086</v>
       </c>
       <c r="D2">
-        <v>-0.1217788175590313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0189314819790976</v>
+      </c>
+      <c r="E2">
+        <v>0.1171759552553419</v>
+      </c>
+      <c r="F2">
+        <v>-0.1353750594106462</v>
+      </c>
+      <c r="G2">
+        <v>-0.06318553064277288</v>
+      </c>
+      <c r="H2">
+        <v>0.03811327694944017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03554133466982134</v>
+        <v>0.01815585287575189</v>
       </c>
       <c r="C4">
-        <v>-0.1128870238936869</v>
+        <v>-0.1341079808347943</v>
       </c>
       <c r="D4">
-        <v>-0.0735674321497734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.001033385826760854</v>
+      </c>
+      <c r="E4">
+        <v>0.08372116995822457</v>
+      </c>
+      <c r="F4">
+        <v>-0.109951473256359</v>
+      </c>
+      <c r="G4">
+        <v>0.06702431163016455</v>
+      </c>
+      <c r="H4">
+        <v>0.02534412157924643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02280958125329864</v>
+        <v>0.03190578236106031</v>
       </c>
       <c r="C6">
-        <v>-0.03999055609023913</v>
+        <v>-0.05019398309776119</v>
       </c>
       <c r="D6">
-        <v>-0.07411351267275734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.005522459754043023</v>
+      </c>
+      <c r="E6">
+        <v>0.1074327968787666</v>
+      </c>
+      <c r="F6">
+        <v>-0.06618663918420765</v>
+      </c>
+      <c r="G6">
+        <v>-0.007826121127146724</v>
+      </c>
+      <c r="H6">
+        <v>-0.04230024535814558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.006954234199042537</v>
+        <v>0.006444787944741161</v>
       </c>
       <c r="C7">
-        <v>-0.03437220879498114</v>
+        <v>-0.05047750274329663</v>
       </c>
       <c r="D7">
-        <v>-0.06235764788046243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.005022558359954718</v>
+      </c>
+      <c r="E7">
+        <v>0.0933602338819154</v>
+      </c>
+      <c r="F7">
+        <v>-0.02094240949490799</v>
+      </c>
+      <c r="G7">
+        <v>0.0209399862579628</v>
+      </c>
+      <c r="H7">
+        <v>-0.0179982330024791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-5.000845803418514e-05</v>
+        <v>-0.004919145107489058</v>
       </c>
       <c r="C8">
-        <v>-0.04342802199623921</v>
+        <v>-0.0516902078586739</v>
       </c>
       <c r="D8">
-        <v>-0.0608349603245506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01799552871624325</v>
+      </c>
+      <c r="E8">
+        <v>0.06318046835633026</v>
+      </c>
+      <c r="F8">
+        <v>-0.07613712338444756</v>
+      </c>
+      <c r="G8">
+        <v>0.0165048104548251</v>
+      </c>
+      <c r="H8">
+        <v>0.06398313245231708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02165018255588147</v>
+        <v>0.01108001400570132</v>
       </c>
       <c r="C9">
-        <v>-0.09363006503431105</v>
+        <v>-0.1079930814568009</v>
       </c>
       <c r="D9">
-        <v>-0.07096869775479003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.00284654369152254</v>
+      </c>
+      <c r="E9">
+        <v>0.07366153846786176</v>
+      </c>
+      <c r="F9">
+        <v>-0.07860264236604354</v>
+      </c>
+      <c r="G9">
+        <v>0.02570546331077184</v>
+      </c>
+      <c r="H9">
+        <v>-0.01320838448241107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.222819456006746</v>
+        <v>0.2428912956556568</v>
       </c>
       <c r="C10">
-        <v>0.1116587452043524</v>
+        <v>0.08389119943734838</v>
       </c>
       <c r="D10">
-        <v>0.0420464503401007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0008080012181055548</v>
+      </c>
+      <c r="E10">
+        <v>-0.02627428109773971</v>
+      </c>
+      <c r="F10">
+        <v>-0.02020149047934029</v>
+      </c>
+      <c r="G10">
+        <v>0.0128917910895652</v>
+      </c>
+      <c r="H10">
+        <v>-0.0149752764236189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005906566554179341</v>
+        <v>0.01032330583183833</v>
       </c>
       <c r="C11">
-        <v>-0.04581375574233982</v>
+        <v>-0.06458189191251058</v>
       </c>
       <c r="D11">
-        <v>-0.04589219634398665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.005427267399267686</v>
+      </c>
+      <c r="E11">
+        <v>0.05922151010801861</v>
+      </c>
+      <c r="F11">
+        <v>-0.01098281584672529</v>
+      </c>
+      <c r="G11">
+        <v>0.01441383808749179</v>
+      </c>
+      <c r="H11">
+        <v>-0.01365037447862368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006215949662587289</v>
+        <v>0.01045312070151518</v>
       </c>
       <c r="C12">
-        <v>-0.04653598438903068</v>
+        <v>-0.05425863190036951</v>
       </c>
       <c r="D12">
-        <v>-0.04522739229899739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.001250501308087855</v>
+      </c>
+      <c r="E12">
+        <v>0.05096348831157115</v>
+      </c>
+      <c r="F12">
+        <v>-0.009185778718557754</v>
+      </c>
+      <c r="G12">
+        <v>-0.01602172407816748</v>
+      </c>
+      <c r="H12">
+        <v>-0.02669429038391618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01844391082148112</v>
+        <v>0.005554306697242259</v>
       </c>
       <c r="C13">
-        <v>-0.05699579290795539</v>
+        <v>-0.08539309670748861</v>
       </c>
       <c r="D13">
-        <v>-0.1106809939937084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.01805356775685357</v>
+      </c>
+      <c r="E13">
+        <v>0.1322167920046458</v>
+      </c>
+      <c r="F13">
+        <v>-0.07938614911958763</v>
+      </c>
+      <c r="G13">
+        <v>-0.09492363077400963</v>
+      </c>
+      <c r="H13">
+        <v>-0.03310838598959717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01037727714231141</v>
+        <v>0.002767251559421149</v>
       </c>
       <c r="C14">
-        <v>-0.02238045412232723</v>
+        <v>-0.04498404393741969</v>
       </c>
       <c r="D14">
-        <v>-0.05425754594793122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01814552883311238</v>
+      </c>
+      <c r="E14">
+        <v>0.1061079160214412</v>
+      </c>
+      <c r="F14">
+        <v>-0.04937692996480415</v>
+      </c>
+      <c r="G14">
+        <v>-0.03396911495949893</v>
+      </c>
+      <c r="H14">
+        <v>-0.04258206580235376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002321773489005825</v>
+        <v>-0.004798194405565392</v>
       </c>
       <c r="C15">
-        <v>-0.02116976355411952</v>
+        <v>-0.04133950513404806</v>
       </c>
       <c r="D15">
-        <v>-0.06234806128453711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006909262399567397</v>
+      </c>
+      <c r="E15">
+        <v>0.07516865805424819</v>
+      </c>
+      <c r="F15">
+        <v>-0.02821462256426493</v>
+      </c>
+      <c r="G15">
+        <v>0.0006537126968660404</v>
+      </c>
+      <c r="H15">
+        <v>0.008704571907498196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007409971946990576</v>
+        <v>0.009771704403811792</v>
       </c>
       <c r="C16">
-        <v>-0.04226089251672253</v>
+        <v>-0.05602567046866564</v>
       </c>
       <c r="D16">
-        <v>-0.04025479841704475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001488381419254891</v>
+      </c>
+      <c r="E16">
+        <v>0.05110481319275872</v>
+      </c>
+      <c r="F16">
+        <v>-0.003266036134627708</v>
+      </c>
+      <c r="G16">
+        <v>0.009340908272261073</v>
+      </c>
+      <c r="H16">
+        <v>-0.02981770323466555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002748801570738995</v>
+        <v>0.0005636128182722362</v>
       </c>
       <c r="C19">
-        <v>-0.02144002871846582</v>
+        <v>-0.01565796131652322</v>
       </c>
       <c r="D19">
-        <v>-0.03221714641594541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.008135645668582258</v>
+      </c>
+      <c r="E19">
+        <v>0.008096659551556588</v>
+      </c>
+      <c r="F19">
+        <v>-0.000113528658235578</v>
+      </c>
+      <c r="G19">
+        <v>-0.0225378646623589</v>
+      </c>
+      <c r="H19">
+        <v>0.02129442851024301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002264149883571981</v>
+        <v>0.00322905957169959</v>
       </c>
       <c r="C20">
-        <v>-0.04210210256673166</v>
+        <v>-0.06090918506081855</v>
       </c>
       <c r="D20">
-        <v>-0.05510282309198374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.003677917656159374</v>
+      </c>
+      <c r="E20">
+        <v>0.07599326731998421</v>
+      </c>
+      <c r="F20">
+        <v>-0.02171686366052531</v>
+      </c>
+      <c r="G20">
+        <v>0.02074126313154985</v>
+      </c>
+      <c r="H20">
+        <v>-0.02393842006687438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00647457090681918</v>
+        <v>0.004445181337283192</v>
       </c>
       <c r="C21">
-        <v>-0.06037446345432387</v>
+        <v>-0.0702748752136548</v>
       </c>
       <c r="D21">
-        <v>-0.07551321866956981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.002473434351734487</v>
+      </c>
+      <c r="E21">
+        <v>0.08252683550168172</v>
+      </c>
+      <c r="F21">
+        <v>-0.09779174895041268</v>
+      </c>
+      <c r="G21">
+        <v>-0.1058936957497654</v>
+      </c>
+      <c r="H21">
+        <v>-0.02213887241301001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001926821576177149</v>
+        <v>-0.00996232555697861</v>
       </c>
       <c r="C22">
-        <v>-0.07374347754415915</v>
+        <v>-0.1022778744380304</v>
       </c>
       <c r="D22">
-        <v>-0.1851827611967686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07425508617382019</v>
+      </c>
+      <c r="E22">
+        <v>0.213847355971218</v>
+      </c>
+      <c r="F22">
+        <v>-0.2261653883321327</v>
+      </c>
+      <c r="G22">
+        <v>0.09172806797466905</v>
+      </c>
+      <c r="H22">
+        <v>0.2550186024326752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002123057582637461</v>
+        <v>-0.006897340374461761</v>
       </c>
       <c r="C23">
-        <v>-0.07496220126305081</v>
+        <v>-0.1050009752779155</v>
       </c>
       <c r="D23">
-        <v>-0.1845279418210283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07719661667085605</v>
+      </c>
+      <c r="E23">
+        <v>0.2125263794701732</v>
+      </c>
+      <c r="F23">
+        <v>-0.2250066519716296</v>
+      </c>
+      <c r="G23">
+        <v>0.08693838396074188</v>
+      </c>
+      <c r="H23">
+        <v>0.2451025802844048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00797212063407203</v>
+        <v>0.01049640751874624</v>
       </c>
       <c r="C24">
-        <v>-0.06455390591821968</v>
+        <v>-0.07275841708146261</v>
       </c>
       <c r="D24">
-        <v>-0.0516793053377081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01368559095834755</v>
+      </c>
+      <c r="E24">
+        <v>0.05995085005922594</v>
+      </c>
+      <c r="F24">
+        <v>-0.008246298495708416</v>
+      </c>
+      <c r="G24">
+        <v>0.0009394540379997307</v>
+      </c>
+      <c r="H24">
+        <v>-0.0160125198030874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009613947938227318</v>
+        <v>0.0143530782304305</v>
       </c>
       <c r="C25">
-        <v>-0.05698166015758873</v>
+        <v>-0.06655671411116292</v>
       </c>
       <c r="D25">
-        <v>-0.04053861186194256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0008254983399494898</v>
+      </c>
+      <c r="E25">
+        <v>0.04520569882811005</v>
+      </c>
+      <c r="F25">
+        <v>-0.0110990399452106</v>
+      </c>
+      <c r="G25">
+        <v>0.01009680966329203</v>
+      </c>
+      <c r="H25">
+        <v>-0.01806452322520559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008493807342511836</v>
+        <v>0.01747299404355153</v>
       </c>
       <c r="C26">
-        <v>-0.02943040316630012</v>
+        <v>-0.04660640288951304</v>
       </c>
       <c r="D26">
-        <v>-0.04764465090456833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02628847776444644</v>
+      </c>
+      <c r="E26">
+        <v>0.0682093539250121</v>
+      </c>
+      <c r="F26">
+        <v>-0.05078774475264563</v>
+      </c>
+      <c r="G26">
+        <v>-0.01094634230318089</v>
+      </c>
+      <c r="H26">
+        <v>0.002787444560578219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3058732477635919</v>
+        <v>0.314596929221293</v>
       </c>
       <c r="C28">
-        <v>0.1209916679665514</v>
+        <v>0.09471479650753727</v>
       </c>
       <c r="D28">
-        <v>0.0326366271748231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01519280702528214</v>
+      </c>
+      <c r="E28">
+        <v>-0.05085190076224101</v>
+      </c>
+      <c r="F28">
+        <v>-0.06462371520114604</v>
+      </c>
+      <c r="G28">
+        <v>0.01263248734021772</v>
+      </c>
+      <c r="H28">
+        <v>0.0745318372254628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001065323050949713</v>
+        <v>0.003622702474820218</v>
       </c>
       <c r="C29">
-        <v>-0.02800072803946662</v>
+        <v>-0.05230509170778935</v>
       </c>
       <c r="D29">
-        <v>-0.06084382962357096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01416209928173801</v>
+      </c>
+      <c r="E29">
+        <v>0.118409519723226</v>
+      </c>
+      <c r="F29">
+        <v>-0.05506209974153272</v>
+      </c>
+      <c r="G29">
+        <v>-0.03730662080428868</v>
+      </c>
+      <c r="H29">
+        <v>-0.0693620417804757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01783305701191991</v>
+        <v>0.01689771776056685</v>
       </c>
       <c r="C30">
-        <v>-0.0979576068656255</v>
+        <v>-0.1184624485583347</v>
       </c>
       <c r="D30">
-        <v>-0.1331771120601074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.003313336947669917</v>
+      </c>
+      <c r="E30">
+        <v>0.144532235638859</v>
+      </c>
+      <c r="F30">
+        <v>-0.04661309201167164</v>
+      </c>
+      <c r="G30">
+        <v>0.02567040271957194</v>
+      </c>
+      <c r="H30">
+        <v>-0.005071429886095731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01468695429693068</v>
+        <v>0.009562464977128957</v>
       </c>
       <c r="C31">
-        <v>-0.09869276224665259</v>
+        <v>-0.103186948028113</v>
       </c>
       <c r="D31">
-        <v>-0.03205537728752395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00794537360165448</v>
+      </c>
+      <c r="E31">
+        <v>0.02028976324165672</v>
+      </c>
+      <c r="F31">
+        <v>-0.001918024234830725</v>
+      </c>
+      <c r="G31">
+        <v>-0.009563804375665997</v>
+      </c>
+      <c r="H31">
+        <v>0.02670764454625882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01305932584886574</v>
+        <v>0.0126257865498577</v>
       </c>
       <c r="C32">
-        <v>-0.05766151921621832</v>
+        <v>-0.06354001809728355</v>
       </c>
       <c r="D32">
-        <v>-0.08054720004333252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01394931882630515</v>
+      </c>
+      <c r="E32">
+        <v>0.0590313425559383</v>
+      </c>
+      <c r="F32">
+        <v>-0.1060558054310033</v>
+      </c>
+      <c r="G32">
+        <v>-0.03430598362418921</v>
+      </c>
+      <c r="H32">
+        <v>0.001683628939562327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.001120666439742719</v>
+        <v>0.007533911737220205</v>
       </c>
       <c r="C33">
-        <v>-0.05680719520357176</v>
+        <v>-0.08059446001635313</v>
       </c>
       <c r="D33">
-        <v>-0.07423682143916992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.008957610034674388</v>
+      </c>
+      <c r="E33">
+        <v>0.09477130884303511</v>
+      </c>
+      <c r="F33">
+        <v>-0.04470238079947323</v>
+      </c>
+      <c r="G33">
+        <v>-0.002445034851639786</v>
+      </c>
+      <c r="H33">
+        <v>-0.01289398558987259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005360328127748098</v>
+        <v>0.01026063925730112</v>
       </c>
       <c r="C34">
-        <v>-0.06456503005160873</v>
+        <v>-0.06432284420255324</v>
       </c>
       <c r="D34">
-        <v>-0.06234310747376881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.008774387857164816</v>
+      </c>
+      <c r="E34">
+        <v>0.05152039820639216</v>
+      </c>
+      <c r="F34">
+        <v>0.01819889183900173</v>
+      </c>
+      <c r="G34">
+        <v>-0.01760026209001902</v>
+      </c>
+      <c r="H34">
+        <v>-0.006852056625836112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.001035065264303176</v>
+        <v>0.004468480915497597</v>
       </c>
       <c r="C35">
-        <v>-0.001599975562586335</v>
+        <v>-0.02169638466433633</v>
       </c>
       <c r="D35">
-        <v>-0.00591520786671539</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002343568107843207</v>
+      </c>
+      <c r="E35">
+        <v>0.03744169404776832</v>
+      </c>
+      <c r="F35">
+        <v>-0.02965882886964459</v>
+      </c>
+      <c r="G35">
+        <v>-0.00189520326927198</v>
+      </c>
+      <c r="H35">
+        <v>-0.03321555855345053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005800672979222416</v>
+        <v>0.01046388741736968</v>
       </c>
       <c r="C36">
-        <v>-0.02978159588015616</v>
+        <v>-0.03948683627058841</v>
       </c>
       <c r="D36">
-        <v>-0.03921333535134541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0141891093652296</v>
+      </c>
+      <c r="E36">
+        <v>0.05937070002371776</v>
+      </c>
+      <c r="F36">
+        <v>-0.0476596204582708</v>
+      </c>
+      <c r="G36">
+        <v>-0.003197431145427837</v>
+      </c>
+      <c r="H36">
+        <v>-0.003153510337751619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005547445119968586</v>
+        <v>0.007427277047320447</v>
       </c>
       <c r="C38">
-        <v>-0.01859871601628889</v>
+        <v>-0.03995340311679697</v>
       </c>
       <c r="D38">
-        <v>-0.06421112066646753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007781477800020841</v>
+      </c>
+      <c r="E38">
+        <v>0.07801383073571015</v>
+      </c>
+      <c r="F38">
+        <v>-0.0221796909884469</v>
+      </c>
+      <c r="G38">
+        <v>0.02289713871673514</v>
+      </c>
+      <c r="H38">
+        <v>0.0466511478182443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.008651892014381473</v>
+        <v>0.007956812587683021</v>
       </c>
       <c r="C39">
-        <v>-0.07390485380622795</v>
+        <v>-0.0993394028794371</v>
       </c>
       <c r="D39">
-        <v>-0.09925989761692103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02198202510550243</v>
+      </c>
+      <c r="E39">
+        <v>0.1136535547135459</v>
+      </c>
+      <c r="F39">
+        <v>-0.01162447429346276</v>
+      </c>
+      <c r="G39">
+        <v>-0.007545074243080247</v>
+      </c>
+      <c r="H39">
+        <v>-0.03825001533546544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.003434670050044962</v>
+        <v>0.009575751803378585</v>
       </c>
       <c r="C40">
-        <v>-0.02740139375497573</v>
+        <v>-0.0481758368332891</v>
       </c>
       <c r="D40">
-        <v>-0.08878545253154234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.004200777777393341</v>
+      </c>
+      <c r="E40">
+        <v>0.1245952947544406</v>
+      </c>
+      <c r="F40">
+        <v>-0.008750061517798375</v>
+      </c>
+      <c r="G40">
+        <v>-0.03847214379048668</v>
+      </c>
+      <c r="H40">
+        <v>-0.0006731821444371133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009026454103044397</v>
+        <v>0.01747593575080685</v>
       </c>
       <c r="C41">
-        <v>-0.02073305605725137</v>
+        <v>-0.03839774156376031</v>
       </c>
       <c r="D41">
-        <v>-0.01404901256982758</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004778135484900463</v>
+      </c>
+      <c r="E41">
+        <v>0.02183063807930631</v>
+      </c>
+      <c r="F41">
+        <v>-0.001299407386853581</v>
+      </c>
+      <c r="G41">
+        <v>0.001986555022805534</v>
+      </c>
+      <c r="H41">
+        <v>0.005647033597252748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002803685428101124</v>
+        <v>0.008646145221386872</v>
       </c>
       <c r="C43">
-        <v>-0.01705491591880996</v>
+        <v>-0.0316775494204711</v>
       </c>
       <c r="D43">
-        <v>-0.03273571730041493</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.001159680670864925</v>
+      </c>
+      <c r="E43">
+        <v>0.04092452028973887</v>
+      </c>
+      <c r="F43">
+        <v>-0.007506739738487924</v>
+      </c>
+      <c r="G43">
+        <v>0.008902670665012187</v>
+      </c>
+      <c r="H43">
+        <v>0.005385567449037032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01347026651911928</v>
+        <v>0.007240639616052167</v>
       </c>
       <c r="C44">
-        <v>-0.05563552827408311</v>
+        <v>-0.0716461223210922</v>
       </c>
       <c r="D44">
-        <v>-0.08118176100388262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008486064766473464</v>
+      </c>
+      <c r="E44">
+        <v>0.106535938499345</v>
+      </c>
+      <c r="F44">
+        <v>-0.05272088261237886</v>
+      </c>
+      <c r="G44">
+        <v>0.005606221123988862</v>
+      </c>
+      <c r="H44">
+        <v>0.0186336839793954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0043482904555612</v>
+        <v>-0.001865936930138007</v>
       </c>
       <c r="C46">
-        <v>-0.03883844285208287</v>
+        <v>-0.04894424891466108</v>
       </c>
       <c r="D46">
-        <v>-0.0635682059134484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01399550285285858</v>
+      </c>
+      <c r="E46">
+        <v>0.0824570215491485</v>
+      </c>
+      <c r="F46">
+        <v>-0.04412136567173858</v>
+      </c>
+      <c r="G46">
+        <v>-0.01283434275353417</v>
+      </c>
+      <c r="H46">
+        <v>-0.02260934869389487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04196470001177405</v>
+        <v>0.02746448012579268</v>
       </c>
       <c r="C47">
-        <v>-0.1261406379036461</v>
+        <v>-0.1216585125346666</v>
       </c>
       <c r="D47">
-        <v>-0.03950390823319089</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004319240931341541</v>
+      </c>
+      <c r="E47">
+        <v>0.002258818956623476</v>
+      </c>
+      <c r="F47">
+        <v>0.007404891469638742</v>
+      </c>
+      <c r="G47">
+        <v>0.01001655695206881</v>
+      </c>
+      <c r="H47">
+        <v>0.01855746309442773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004022018058174297</v>
+        <v>0.01219448641506389</v>
       </c>
       <c r="C48">
-        <v>-0.03455131719504773</v>
+        <v>-0.04609264847595997</v>
       </c>
       <c r="D48">
-        <v>-0.04160555464316427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01926360911093481</v>
+      </c>
+      <c r="E48">
+        <v>0.06163581721401053</v>
+      </c>
+      <c r="F48">
+        <v>-0.05904087315872752</v>
+      </c>
+      <c r="G48">
+        <v>-0.0008359795020432424</v>
+      </c>
+      <c r="H48">
+        <v>0.0007691886993966973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002545779201191917</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005936806693077616</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.002380360297966606</v>
+      </c>
+      <c r="E49">
+        <v>0.002855846558384808</v>
+      </c>
+      <c r="F49">
+        <v>0.01208302866139636</v>
+      </c>
+      <c r="G49">
+        <v>-0.00285259079372163</v>
+      </c>
+      <c r="H49">
+        <v>-0.0158062669844</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01801924176308923</v>
+        <v>0.01191784356462207</v>
       </c>
       <c r="C50">
-        <v>-0.06911657497125198</v>
+        <v>-0.08096270684598032</v>
       </c>
       <c r="D50">
-        <v>-0.04648333923254967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00287675985441136</v>
+      </c>
+      <c r="E50">
+        <v>0.03451934140296441</v>
+      </c>
+      <c r="F50">
+        <v>-0.005068799499180582</v>
+      </c>
+      <c r="G50">
+        <v>0.006634096207047615</v>
+      </c>
+      <c r="H50">
+        <v>0.03275366720383894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004557782236805295</v>
+        <v>-0.005520495137898191</v>
       </c>
       <c r="C51">
-        <v>-0.01519697570534751</v>
+        <v>-0.02628059545308193</v>
       </c>
       <c r="D51">
-        <v>-0.05309725516713867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01963686877801778</v>
+      </c>
+      <c r="E51">
+        <v>0.05820302815576631</v>
+      </c>
+      <c r="F51">
+        <v>-0.054103585516016</v>
+      </c>
+      <c r="G51">
+        <v>-0.01635154244848255</v>
+      </c>
+      <c r="H51">
+        <v>0.003919279793667365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0770739035849724</v>
+        <v>0.05802483496438634</v>
       </c>
       <c r="C53">
-        <v>-0.1609630102802452</v>
+        <v>-0.1662034480527723</v>
       </c>
       <c r="D53">
-        <v>0.01037134597717126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.020312360194355</v>
+      </c>
+      <c r="E53">
+        <v>-0.06011904297522487</v>
+      </c>
+      <c r="F53">
+        <v>0.007250977978859935</v>
+      </c>
+      <c r="G53">
+        <v>-0.01140471607423223</v>
+      </c>
+      <c r="H53">
+        <v>0.03436153882740951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.001198011327692632</v>
+        <v>0.01060998093684446</v>
       </c>
       <c r="C54">
-        <v>-0.03461199987909421</v>
+        <v>-0.05110659130789439</v>
       </c>
       <c r="D54">
-        <v>-0.07385559317320857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.009151371901358939</v>
+      </c>
+      <c r="E54">
+        <v>0.07865744048474312</v>
+      </c>
+      <c r="F54">
+        <v>-0.02480275409169484</v>
+      </c>
+      <c r="G54">
+        <v>4.905801278967154e-06</v>
+      </c>
+      <c r="H54">
+        <v>0.006171492819014661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05796965814215781</v>
+        <v>0.03762754716785693</v>
       </c>
       <c r="C55">
-        <v>-0.1250551711311356</v>
+        <v>-0.1233623525192997</v>
       </c>
       <c r="D55">
-        <v>0.005837843936185513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04065069063920865</v>
+      </c>
+      <c r="E55">
+        <v>-0.04595299263029912</v>
+      </c>
+      <c r="F55">
+        <v>0.03289930527016993</v>
+      </c>
+      <c r="G55">
+        <v>-0.0236141043505638</v>
+      </c>
+      <c r="H55">
+        <v>0.04109208627604772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09087629240828143</v>
+        <v>0.05803621394975771</v>
       </c>
       <c r="C56">
-        <v>-0.1870477068006926</v>
+        <v>-0.1913605886107605</v>
       </c>
       <c r="D56">
-        <v>-0.0155598299120503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03013896060307261</v>
+      </c>
+      <c r="E56">
+        <v>-0.07218489026963446</v>
+      </c>
+      <c r="F56">
+        <v>0.0467083005609276</v>
+      </c>
+      <c r="G56">
+        <v>-0.05181444378926973</v>
+      </c>
+      <c r="H56">
+        <v>0.1188315050715006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0137071088270795</v>
+        <v>0.009390529407049838</v>
       </c>
       <c r="C58">
-        <v>-0.05736794720794686</v>
+        <v>-0.1042665806195645</v>
       </c>
       <c r="D58">
-        <v>-0.1704755652455554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07398134521004</v>
+      </c>
+      <c r="E58">
+        <v>0.1982866968471248</v>
+      </c>
+      <c r="F58">
+        <v>-0.2540716321446091</v>
+      </c>
+      <c r="G58">
+        <v>0.05819130815425929</v>
+      </c>
+      <c r="H58">
+        <v>0.139916880687376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2292186310586905</v>
+        <v>0.2637437767476939</v>
       </c>
       <c r="C59">
-        <v>0.07197787681629315</v>
+        <v>0.04874428297679178</v>
       </c>
       <c r="D59">
-        <v>-0.04959704397499157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03119360102799073</v>
+      </c>
+      <c r="E59">
+        <v>0.02131592484925369</v>
+      </c>
+      <c r="F59">
+        <v>-0.04619054806060754</v>
+      </c>
+      <c r="G59">
+        <v>-0.03320806271685627</v>
+      </c>
+      <c r="H59">
+        <v>0.005958786943705082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1443897967768495</v>
+        <v>0.1505735525367491</v>
       </c>
       <c r="C60">
-        <v>-0.13231799210538</v>
+        <v>-0.1591255939691729</v>
       </c>
       <c r="D60">
-        <v>-0.1049070431649648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01845600781311499</v>
+      </c>
+      <c r="E60">
+        <v>0.1154914205413536</v>
+      </c>
+      <c r="F60">
+        <v>0.2071352430481224</v>
+      </c>
+      <c r="G60">
+        <v>-0.02899696001778616</v>
+      </c>
+      <c r="H60">
+        <v>-0.2383045524807758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01237039279093525</v>
+        <v>0.01397089268719</v>
       </c>
       <c r="C61">
-        <v>-0.06444807441460572</v>
+        <v>-0.08617404655030271</v>
       </c>
       <c r="D61">
-        <v>-0.06880139157128351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01023355401001185</v>
+      </c>
+      <c r="E61">
+        <v>0.07827808186978981</v>
+      </c>
+      <c r="F61">
+        <v>-0.002284370009913488</v>
+      </c>
+      <c r="G61">
+        <v>-0.009495518430545488</v>
+      </c>
+      <c r="H61">
+        <v>-0.01624667315028977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001080828967981691</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0005285304952443804</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0006680099269097893</v>
+      </c>
+      <c r="E62">
+        <v>-0.0003305013764245668</v>
+      </c>
+      <c r="F62">
+        <v>-0.002027091719273871</v>
+      </c>
+      <c r="G62">
+        <v>-0.0003486983418102287</v>
+      </c>
+      <c r="H62">
+        <v>0.001174090458530212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001898705097102602</v>
+        <v>0.01524903701110484</v>
       </c>
       <c r="C63">
-        <v>-0.04061451778627054</v>
+        <v>-0.05789804421040061</v>
       </c>
       <c r="D63">
-        <v>-0.06009593831923649</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02691249259644736</v>
+      </c>
+      <c r="E63">
+        <v>0.08256331685266212</v>
+      </c>
+      <c r="F63">
+        <v>-0.02350628613462983</v>
+      </c>
+      <c r="G63">
+        <v>-0.002498807044614538</v>
+      </c>
+      <c r="H63">
+        <v>-0.02113930714846147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02896307515948431</v>
+        <v>0.01544925244865049</v>
       </c>
       <c r="C64">
-        <v>-0.1069845800798626</v>
+        <v>-0.1045501574401972</v>
       </c>
       <c r="D64">
-        <v>-0.01014080210659708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02202017810455629</v>
+      </c>
+      <c r="E64">
+        <v>0.01668204202586626</v>
+      </c>
+      <c r="F64">
+        <v>-0.01652324302068823</v>
+      </c>
+      <c r="G64">
+        <v>0.03258868145607963</v>
+      </c>
+      <c r="H64">
+        <v>-0.031921138198853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0213354963372955</v>
+        <v>0.0261971109086965</v>
       </c>
       <c r="C65">
-        <v>-0.03361018534815195</v>
+        <v>-0.05738397495092958</v>
       </c>
       <c r="D65">
-        <v>-0.0826051631606768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01952391603068507</v>
+      </c>
+      <c r="E65">
+        <v>0.1152866021285291</v>
+      </c>
+      <c r="F65">
+        <v>-0.006608448797176158</v>
+      </c>
+      <c r="G65">
+        <v>0.04571482876372484</v>
+      </c>
+      <c r="H65">
+        <v>-0.06528178957186227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01648393690982738</v>
+        <v>0.01018363214612377</v>
       </c>
       <c r="C66">
-        <v>-0.09362335722259138</v>
+        <v>-0.1249579360731949</v>
       </c>
       <c r="D66">
-        <v>-0.128144408259449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.006508931576750828</v>
+      </c>
+      <c r="E66">
+        <v>0.1288737428307959</v>
+      </c>
+      <c r="F66">
+        <v>-0.02179801511348537</v>
+      </c>
+      <c r="G66">
+        <v>-0.007873804066835704</v>
+      </c>
+      <c r="H66">
+        <v>-0.006391678619316026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01441620715952855</v>
+        <v>0.01616272320931711</v>
       </c>
       <c r="C67">
-        <v>-0.02309389751565151</v>
+        <v>-0.04081766001639747</v>
       </c>
       <c r="D67">
-        <v>-0.03684725515697314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004669223062519133</v>
+      </c>
+      <c r="E67">
+        <v>0.05317257031895416</v>
+      </c>
+      <c r="F67">
+        <v>0.01798480584715814</v>
+      </c>
+      <c r="G67">
+        <v>0.01522143597173146</v>
+      </c>
+      <c r="H67">
+        <v>0.02659193675158016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2396330421105541</v>
+        <v>0.2799581592906015</v>
       </c>
       <c r="C68">
-        <v>0.09429079445985854</v>
+        <v>0.06442124180515016</v>
       </c>
       <c r="D68">
-        <v>-0.01229006069849101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02372438918461584</v>
+      </c>
+      <c r="E68">
+        <v>0.03116917804391794</v>
+      </c>
+      <c r="F68">
+        <v>-0.05751073438830111</v>
+      </c>
+      <c r="G68">
+        <v>0.004992199719204083</v>
+      </c>
+      <c r="H68">
+        <v>0.03881621685815698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.02915224977334267</v>
+        <v>0.01198155414441418</v>
       </c>
       <c r="C69">
-        <v>-0.1267029256830894</v>
+        <v>-0.1093646015236533</v>
       </c>
       <c r="D69">
-        <v>-0.04751339156297984</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008959415401254538</v>
+      </c>
+      <c r="E69">
+        <v>0.007336598046705787</v>
+      </c>
+      <c r="F69">
+        <v>0.01638654413826679</v>
+      </c>
+      <c r="G69">
+        <v>-0.005964577332075834</v>
+      </c>
+      <c r="H69">
+        <v>0.01581489139483517</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2628490966538593</v>
+        <v>0.272291187561704</v>
       </c>
       <c r="C71">
-        <v>0.1136785462764333</v>
+        <v>0.08171743298162026</v>
       </c>
       <c r="D71">
-        <v>-0.008252461698727417</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01169528560588903</v>
+      </c>
+      <c r="E71">
+        <v>0.008235190413861544</v>
+      </c>
+      <c r="F71">
+        <v>-0.03194044303350537</v>
+      </c>
+      <c r="G71">
+        <v>0.01043338907007861</v>
+      </c>
+      <c r="H71">
+        <v>0.05215012027735382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0790742912819439</v>
+        <v>0.06356483882739304</v>
       </c>
       <c r="C72">
-        <v>-0.109450186890158</v>
+        <v>-0.1303519560593186</v>
       </c>
       <c r="D72">
-        <v>-0.08735336562614025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02315621614824768</v>
+      </c>
+      <c r="E72">
+        <v>0.0739128358030149</v>
+      </c>
+      <c r="F72">
+        <v>0.03046374004579675</v>
+      </c>
+      <c r="G72">
+        <v>0.01615944637168067</v>
+      </c>
+      <c r="H72">
+        <v>-0.05379209376092908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1472109561138471</v>
+        <v>0.155446405692749</v>
       </c>
       <c r="C73">
-        <v>-0.1186504348820611</v>
+        <v>-0.1746490663488292</v>
       </c>
       <c r="D73">
-        <v>-0.1677688531331893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08140788445775725</v>
+      </c>
+      <c r="E73">
+        <v>0.2352138564331239</v>
+      </c>
+      <c r="F73">
+        <v>0.3487631904365963</v>
+      </c>
+      <c r="G73">
+        <v>0.01752500192067921</v>
+      </c>
+      <c r="H73">
+        <v>-0.3485817331653814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06866220380840085</v>
+        <v>0.0471968839176756</v>
       </c>
       <c r="C74">
-        <v>-0.1408140226515399</v>
+        <v>-0.1383829614499811</v>
       </c>
       <c r="D74">
-        <v>0.05814489386730674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03114833488075431</v>
+      </c>
+      <c r="E74">
+        <v>-0.07971304943297355</v>
+      </c>
+      <c r="F74">
+        <v>0.01075343977699771</v>
+      </c>
+      <c r="G74">
+        <v>-0.003134024969873228</v>
+      </c>
+      <c r="H74">
+        <v>0.0333494778851974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1627623530843781</v>
+        <v>0.09411005500226967</v>
       </c>
       <c r="C75">
-        <v>-0.2432562464454361</v>
+        <v>-0.2448057450809658</v>
       </c>
       <c r="D75">
-        <v>0.03164704968696145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0219712864800005</v>
+      </c>
+      <c r="E75">
+        <v>-0.1702129476824286</v>
+      </c>
+      <c r="F75">
+        <v>0.1325061654698009</v>
+      </c>
+      <c r="G75">
+        <v>-0.01508316890710994</v>
+      </c>
+      <c r="H75">
+        <v>0.2337487086691582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09070699475368037</v>
+        <v>0.05606038838446033</v>
       </c>
       <c r="C76">
-        <v>-0.1728210830663102</v>
+        <v>-0.176626929749174</v>
       </c>
       <c r="D76">
-        <v>-0.005236323643291386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02983888987616227</v>
+      </c>
+      <c r="E76">
+        <v>-0.06818667715940585</v>
+      </c>
+      <c r="F76">
+        <v>0.06931825896083185</v>
+      </c>
+      <c r="G76">
+        <v>-0.0425332439677592</v>
+      </c>
+      <c r="H76">
+        <v>0.07546765551050183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0006803032699396193</v>
+        <v>0.005640384771548154</v>
       </c>
       <c r="C77">
-        <v>-0.1231353823955804</v>
+        <v>-0.1598991160365859</v>
       </c>
       <c r="D77">
-        <v>-0.2498200032068898</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9388987571261466</v>
+      </c>
+      <c r="E77">
+        <v>-0.1495216156613795</v>
+      </c>
+      <c r="F77">
+        <v>0.07379519919578229</v>
+      </c>
+      <c r="G77">
+        <v>0.09661741590570676</v>
+      </c>
+      <c r="H77">
+        <v>-0.1305733121719281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02204990557209757</v>
+        <v>0.02287756666103593</v>
       </c>
       <c r="C78">
-        <v>-0.09221301774273979</v>
+        <v>-0.1016081181418339</v>
       </c>
       <c r="D78">
-        <v>-0.1086724729916163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01828989810430097</v>
+      </c>
+      <c r="E78">
+        <v>0.08038459687040178</v>
+      </c>
+      <c r="F78">
+        <v>-0.07281638476086656</v>
+      </c>
+      <c r="G78">
+        <v>-0.05707149932415814</v>
+      </c>
+      <c r="H78">
+        <v>0.06754724378987095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07665096561539241</v>
+        <v>0.05260596273264112</v>
       </c>
       <c r="C79">
-        <v>-0.3115049282390068</v>
+        <v>-0.2544839651906092</v>
       </c>
       <c r="D79">
-        <v>0.6919153679178768</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1673013224252571</v>
+      </c>
+      <c r="E79">
+        <v>-0.4420885160130627</v>
+      </c>
+      <c r="F79">
+        <v>-0.5338062771553086</v>
+      </c>
+      <c r="G79">
+        <v>0.3256946970902349</v>
+      </c>
+      <c r="H79">
+        <v>-0.4917775211749608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0001225475139166798</v>
+        <v>0.009319278753754242</v>
       </c>
       <c r="C80">
-        <v>-0.05090631892986389</v>
+        <v>-0.05086030207481691</v>
       </c>
       <c r="D80">
-        <v>-0.02896734991761583</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03695306842037028</v>
+      </c>
+      <c r="E80">
+        <v>0.05591932392346305</v>
+      </c>
+      <c r="F80">
+        <v>0.01244065246608913</v>
+      </c>
+      <c r="G80">
+        <v>-0.06154868114798003</v>
+      </c>
+      <c r="H80">
+        <v>-0.03891280442056494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06470047095847574</v>
+        <v>0.02922545206180167</v>
       </c>
       <c r="C81">
-        <v>-0.1588549470115102</v>
+        <v>-0.1546605509562318</v>
       </c>
       <c r="D81">
-        <v>0.06961593838551099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02797995479887564</v>
+      </c>
+      <c r="E81">
+        <v>-0.1090035400932486</v>
+      </c>
+      <c r="F81">
+        <v>-0.006917231170868914</v>
+      </c>
+      <c r="G81">
+        <v>-0.04061824518758352</v>
+      </c>
+      <c r="H81">
+        <v>0.08217425292239154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.124843076321621</v>
+        <v>0.07039566775874617</v>
       </c>
       <c r="C82">
-        <v>-0.2585386533559582</v>
+        <v>-0.227589647058523</v>
       </c>
       <c r="D82">
-        <v>0.03289033155655315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03669447361552845</v>
+      </c>
+      <c r="E82">
+        <v>-0.153638980666544</v>
+      </c>
+      <c r="F82">
+        <v>0.07956425834385721</v>
+      </c>
+      <c r="G82">
+        <v>-0.09599103889471282</v>
+      </c>
+      <c r="H82">
+        <v>0.1457161095104747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01883324763874474</v>
+        <v>-0.007107129406819388</v>
       </c>
       <c r="C83">
-        <v>-0.0539016158127908</v>
+        <v>-0.01772152346735276</v>
       </c>
       <c r="D83">
-        <v>-0.00737506519548861</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07976753571907419</v>
+      </c>
+      <c r="E83">
+        <v>-0.0878686669580877</v>
+      </c>
+      <c r="F83">
+        <v>-0.259035937100442</v>
+      </c>
+      <c r="G83">
+        <v>-0.8718479111343981</v>
+      </c>
+      <c r="H83">
+        <v>-0.2017716649294607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001906842400046086</v>
+        <v>-0.002669483435193723</v>
       </c>
       <c r="C84">
-        <v>-0.009808231000413427</v>
+        <v>-0.02476448803296975</v>
       </c>
       <c r="D84">
-        <v>-0.02004099765680678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01264055961193593</v>
+      </c>
+      <c r="E84">
+        <v>0.04634523354832691</v>
+      </c>
+      <c r="F84">
+        <v>-0.05979348266574403</v>
+      </c>
+      <c r="G84">
+        <v>0.03649498647511002</v>
+      </c>
+      <c r="H84">
+        <v>0.05146984016068631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0870724016104354</v>
+        <v>0.05101026846031561</v>
       </c>
       <c r="C85">
-        <v>-0.1761297316077736</v>
+        <v>-0.1713699110945825</v>
       </c>
       <c r="D85">
-        <v>0.09515630625661772</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08846204935111096</v>
+      </c>
+      <c r="E85">
+        <v>-0.1214880975664995</v>
+      </c>
+      <c r="F85">
+        <v>0.006818696601365297</v>
+      </c>
+      <c r="G85">
+        <v>-0.006947387299818085</v>
+      </c>
+      <c r="H85">
+        <v>0.06188654337335047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02706296392317733</v>
+        <v>0.01627603226843493</v>
       </c>
       <c r="C86">
-        <v>-0.02498647793222057</v>
+        <v>-0.05225117656982792</v>
       </c>
       <c r="D86">
-        <v>-0.07379519295141457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0375149081190649</v>
+      </c>
+      <c r="E86">
+        <v>0.05152947372143327</v>
+      </c>
+      <c r="F86">
+        <v>-0.08232061052947816</v>
+      </c>
+      <c r="G86">
+        <v>0.03342381331788334</v>
+      </c>
+      <c r="H86">
+        <v>0.05751474652363046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02069938159408981</v>
+        <v>0.01283778102620734</v>
       </c>
       <c r="C87">
-        <v>-0.06259260204081707</v>
+        <v>-0.08241293221498809</v>
       </c>
       <c r="D87">
-        <v>-0.1164337973568019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03331412990622536</v>
+      </c>
+      <c r="E87">
+        <v>0.1103593164684476</v>
+      </c>
+      <c r="F87">
+        <v>-0.09150998582695162</v>
+      </c>
+      <c r="G87">
+        <v>0.002107862900237298</v>
+      </c>
+      <c r="H87">
+        <v>0.04652890981455242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03578388445066764</v>
+        <v>0.03497195961762955</v>
       </c>
       <c r="C88">
-        <v>-0.0720962693052473</v>
+        <v>-0.08035546389691958</v>
       </c>
       <c r="D88">
-        <v>0.001043218514381557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01727148059889176</v>
+      </c>
+      <c r="E88">
+        <v>0.01548307748818345</v>
+      </c>
+      <c r="F88">
+        <v>0.003816800412382819</v>
+      </c>
+      <c r="G88">
+        <v>0.002809575890952326</v>
+      </c>
+      <c r="H88">
+        <v>0.0004468451885958753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3974801239797058</v>
+        <v>0.3991487977933301</v>
       </c>
       <c r="C89">
-        <v>0.2012662736059584</v>
+        <v>0.150526869529989</v>
       </c>
       <c r="D89">
-        <v>-0.003354501448073302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04568737386285737</v>
+      </c>
+      <c r="E89">
+        <v>0.01402957399264954</v>
+      </c>
+      <c r="F89">
+        <v>-0.1079887438534351</v>
+      </c>
+      <c r="G89">
+        <v>-0.09177635748325393</v>
+      </c>
+      <c r="H89">
+        <v>-0.02538729438570276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3171444730710065</v>
+        <v>0.3241311647352108</v>
       </c>
       <c r="C90">
-        <v>0.1465686167770428</v>
+        <v>0.09750640199204545</v>
       </c>
       <c r="D90">
-        <v>-0.06113564133485318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02359175539440982</v>
+      </c>
+      <c r="E90">
+        <v>0.03886647419411437</v>
+      </c>
+      <c r="F90">
+        <v>-0.01322391364889518</v>
+      </c>
+      <c r="G90">
+        <v>-0.009979357689856602</v>
+      </c>
+      <c r="H90">
+        <v>0.0431890258257001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1004079581675819</v>
+        <v>0.06442718856383947</v>
       </c>
       <c r="C91">
-        <v>-0.2196448877218176</v>
+        <v>-0.1913300804189584</v>
       </c>
       <c r="D91">
-        <v>0.09339116446475673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02501362116097754</v>
+      </c>
+      <c r="E91">
+        <v>-0.1564784156886926</v>
+      </c>
+      <c r="F91">
+        <v>-0.003300443548641178</v>
+      </c>
+      <c r="G91">
+        <v>-0.02805752137811035</v>
+      </c>
+      <c r="H91">
+        <v>0.03985207559309528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3151859106985216</v>
+        <v>0.3407638474093435</v>
       </c>
       <c r="C92">
-        <v>0.1529219486573351</v>
+        <v>0.1202627915814924</v>
       </c>
       <c r="D92">
-        <v>0.0165773135197043</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04962112327079995</v>
+      </c>
+      <c r="E92">
+        <v>-0.01652054589172547</v>
+      </c>
+      <c r="F92">
+        <v>-0.06127679312027293</v>
+      </c>
+      <c r="G92">
+        <v>0.07708993246217684</v>
+      </c>
+      <c r="H92">
+        <v>0.05414048881112293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3360536205621661</v>
+        <v>0.3314134859966311</v>
       </c>
       <c r="C93">
-        <v>0.1567307107359494</v>
+        <v>0.11736733766108</v>
       </c>
       <c r="D93">
-        <v>0.02842066625761879</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01967367123724536</v>
+      </c>
+      <c r="E93">
+        <v>-0.01900997697433622</v>
+      </c>
+      <c r="F93">
+        <v>-0.004807880171345254</v>
+      </c>
+      <c r="G93">
+        <v>0.05111615437850864</v>
+      </c>
+      <c r="H93">
+        <v>0.002944068522244089</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1658637956869218</v>
+        <v>0.1132695771457951</v>
       </c>
       <c r="C94">
-        <v>-0.2856888975550258</v>
+        <v>-0.2717002583203569</v>
       </c>
       <c r="D94">
-        <v>0.08272383398677441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0834442620345727</v>
+      </c>
+      <c r="E94">
+        <v>-0.2681167694872384</v>
+      </c>
+      <c r="F94">
+        <v>0.1836295375166143</v>
+      </c>
+      <c r="G94">
+        <v>-0.1033803358438988</v>
+      </c>
+      <c r="H94">
+        <v>0.319456381788393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.001094882568934435</v>
+        <v>0.01602923362495639</v>
       </c>
       <c r="C95">
-        <v>-0.08399514809049627</v>
+        <v>-0.1099075133755523</v>
       </c>
       <c r="D95">
-        <v>-0.1204426255972793</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1132044841421444</v>
+      </c>
+      <c r="E95">
+        <v>0.05985921497447566</v>
+      </c>
+      <c r="F95">
+        <v>0.08270987491737204</v>
+      </c>
+      <c r="G95">
+        <v>-0.02539030219928871</v>
+      </c>
+      <c r="H95">
+        <v>-0.03334036110315924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002175738639231541</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001625284032781867</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.004781253264867606</v>
+      </c>
+      <c r="E97">
+        <v>0.004657486748393808</v>
+      </c>
+      <c r="F97">
+        <v>0.0004355213849825689</v>
+      </c>
+      <c r="G97">
+        <v>0.005048830875049528</v>
+      </c>
+      <c r="H97">
+        <v>0.003745081984529359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1213643267065133</v>
+        <v>0.1334729344109137</v>
       </c>
       <c r="C98">
-        <v>-0.1072010672065771</v>
+        <v>-0.1502394290851055</v>
       </c>
       <c r="D98">
-        <v>-0.1273385241216174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06863539168279957</v>
+      </c>
+      <c r="E98">
+        <v>0.1698330949157031</v>
+      </c>
+      <c r="F98">
+        <v>0.2708579957008335</v>
+      </c>
+      <c r="G98">
+        <v>0.02639268843158437</v>
+      </c>
+      <c r="H98">
+        <v>-0.2961250014789455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002071136792878836</v>
+        <v>0.003732575920171564</v>
       </c>
       <c r="C101">
-        <v>-0.02739869350671247</v>
+        <v>-0.05131066943536663</v>
       </c>
       <c r="D101">
-        <v>-0.06074638976172742</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01352832682122237</v>
+      </c>
+      <c r="E101">
+        <v>0.1174265518135599</v>
+      </c>
+      <c r="F101">
+        <v>-0.05446317295737491</v>
+      </c>
+      <c r="G101">
+        <v>-0.03702200237418588</v>
+      </c>
+      <c r="H101">
+        <v>-0.06851349273670915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05238939699960506</v>
+        <v>0.01860202056132746</v>
       </c>
       <c r="C102">
-        <v>-0.1466037550210135</v>
+        <v>-0.1063230572633749</v>
       </c>
       <c r="D102">
-        <v>-0.01258200750249121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01237725335908245</v>
+      </c>
+      <c r="E102">
+        <v>-0.07214633434606331</v>
+      </c>
+      <c r="F102">
+        <v>0.06582763283611801</v>
+      </c>
+      <c r="G102">
+        <v>-0.04488955408794194</v>
+      </c>
+      <c r="H102">
+        <v>0.0437709775114533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
